--- a/appdata/backorder_list.xlsx
+++ b/appdata/backorder_list.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\내 드라이브\Inventory data\appdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D011D7BD-3608-4BF4-9B28-361BA5BEB9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="690" windowWidth="13485" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7575" yWindow="690" windowWidth="13485" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Backorder_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>prod</t>
   </si>
@@ -89,15 +83,12 @@
   </si>
   <si>
     <t>OT_DOMINICA 16_HAVBRN</t>
-  </si>
-  <si>
-    <t>BY_TMH AISHA_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -598,48 +589,48 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,7 +688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -749,7 +740,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -943,18 +934,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1139,14 +1130,6 @@
         <v>827298948629</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>885160242138</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
